--- a/Frontend/Mobile_Application/assets/excel/language_excel.xlsx
+++ b/Frontend/Mobile_Application/assets/excel/language_excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Frontend\Mobile_Application\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBE108E-277E-4984-963C-63D62131CBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFC0B5E-04C3-49F2-ACD2-7CBDAA7A9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{007C0340-D833-4FB1-AF30-77DC233B8283}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{007C0340-D833-4FB1-AF30-77DC233B8283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,12 +90,6 @@
     <t>Private Person</t>
   </si>
   <si>
-    <t>Nhiệm vụ của tôi</t>
-  </si>
-  <si>
-    <t>My Tasks</t>
-  </si>
-  <si>
     <t>my_tasks</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Surveys was completed</t>
+  </si>
+  <si>
+    <t>Thực hiện khảo sát</t>
+  </si>
+  <si>
+    <t>Take a pollution survey</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,90 +603,90 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
